--- a/amelioration-mapping/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T07:25:47+00:00</t>
+    <t>2024-03-12T09:15:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -547,7 +547,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
   </si>
   <si>
-    <t>regionSource : JDV-J237-RegionOM-ROR</t>
+    <t>regionSource</t>
   </si>
   <si>
     <t>Practitioner.implicitRules</t>
@@ -668,9 +668,6 @@
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régional) présente dans les métadonnées.</t>
-  </si>
-  <si>
-    <t>metadonnee.dateCreation</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -1119,7 +1116,7 @@
     <t>./TitleCode</t>
   </si>
   <si>
-    <t>PersonnePhysique.civilite : JDV-J207-Civilite-ROR</t>
+    <t>PersonnePhysique.civilite</t>
   </si>
   <si>
     <t>Practitioner.name.suffix</t>
@@ -1193,7 +1190,7 @@
     <t>./ContactPoints</t>
   </si>
   <si>
-    <t>boiteLettreMSS</t>
+    <t>boiteLettreMSS.adresseMSS</t>
   </si>
   <si>
     <t>Practitioner.telecom.id</t>
@@ -1221,9 +1218,6 @@
     <t>Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication</t>
   </si>
   <si>
-    <t>adresseMSS.canal : JDV-J225-CanalCommunication-ROR</t>
-  </si>
-  <si>
     <t>Practitioner.telecom.extension:ror-telecom-usage</t>
   </si>
   <si>
@@ -1240,9 +1234,6 @@
     <t>Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication</t>
   </si>
   <si>
-    <t>adresseMSS.utilisation</t>
-  </si>
-  <si>
     <t>Practitioner.telecom.extension:ror-telecom-confidentiality-level</t>
   </si>
   <si>
@@ -1259,9 +1250,6 @@
     <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
   </si>
   <si>
-    <t>adresseMSS.niveauConfidentialite : JDV-J222-NiveauConfidentialite-ROR</t>
-  </si>
-  <si>
     <t>Practitioner.telecom.system</t>
   </si>
   <si>
@@ -1317,7 +1305,7 @@
     <t>./url</t>
   </si>
   <si>
-    <t>adresseMSS.adresseTelecom</t>
+    <t>adresseTelecom</t>
   </si>
   <si>
     <t>Practitioner.telecom.use</t>
@@ -2011,7 +1999,7 @@
     <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="52.3828125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="67.07421875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="54.96875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4234,15 +4222,15 @@
         <v>77</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4268,16 +4256,16 @@
         <v>114</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>117</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4326,7 +4314,7 @@
         <v>120</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4358,10 +4346,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4384,17 +4372,17 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4443,7 +4431,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4458,27 +4446,27 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4590,10 +4578,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4707,10 +4695,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4736,16 +4724,16 @@
         <v>178</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4773,28 +4761,28 @@
         <v>169</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Z24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4812,7 +4800,7 @@
         <v>104</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4826,10 +4814,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4852,19 +4840,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4892,28 +4880,28 @@
         <v>152</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4928,10 +4916,10 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4945,10 +4933,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4974,16 +4962,16 @@
         <v>136</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4993,46 +4981,46 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="T26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="T26" t="s" s="2">
+      <c r="U26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5047,13 +5035,13 @@
         <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5064,10 +5052,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5093,13 +5081,13 @@
         <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5113,43 +5101,43 @@
         <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5164,13 +5152,13 @@
         <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5181,10 +5169,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5207,16 +5195,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5266,7 +5254,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5278,16 +5266,16 @@
         <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5298,10 +5286,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5324,16 +5312,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5383,7 +5371,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5395,16 +5383,16 @@
         <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5415,10 +5403,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5441,26 +5429,26 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="O30" t="s" s="2">
+      <c r="P30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q30" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="P30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5504,7 +5492,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5522,13 +5510,13 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>77</v>
@@ -5536,10 +5524,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5562,19 +5550,19 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5623,7 +5611,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5638,13 +5626,13 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5655,10 +5643,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5770,10 +5758,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5887,10 +5875,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5916,16 +5904,16 @@
         <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5953,28 +5941,28 @@
         <v>169</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Z34" t="s" s="2">
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5989,13 +5977,13 @@
         <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -6006,10 +5994,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6035,16 +6023,16 @@
         <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6093,7 +6081,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6108,10 +6096,10 @@
         <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6125,14 +6113,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6154,13 +6142,13 @@
         <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6210,7 +6198,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6225,13 +6213,13 @@
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6242,14 +6230,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6271,13 +6259,13 @@
         <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6327,7 +6315,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6342,13 +6330,13 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6359,10 +6347,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6388,13 +6376,13 @@
         <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6424,25 +6412,25 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6457,27 +6445,27 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6503,13 +6491,13 @@
         <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="N39" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6559,7 +6547,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6574,10 +6562,10 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6591,10 +6579,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6617,19 +6605,19 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6678,7 +6666,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6690,16 +6678,16 @@
         <v>102</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AM40" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6710,10 +6698,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6736,19 +6724,19 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6797,7 +6785,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6809,30 +6797,30 @@
         <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6944,10 +6932,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6955,7 +6943,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7059,13 +7047,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C44" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>77</v>
@@ -7087,13 +7075,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7171,18 +7159,18 @@
         <v>77</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -7204,13 +7192,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7288,18 +7276,18 @@
         <v>77</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
@@ -7321,13 +7309,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7405,15 +7393,15 @@
         <v>77</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7439,13 +7427,13 @@
         <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7474,10 +7462,10 @@
         <v>169</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7495,7 +7483,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7504,19 +7492,19 @@
         <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7527,10 +7515,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7556,16 +7544,16 @@
         <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7614,7 +7602,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7629,27 +7617,27 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7675,16 +7663,16 @@
         <v>178</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7712,10 +7700,10 @@
         <v>169</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7733,7 +7721,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7748,13 +7736,13 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7765,10 +7753,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7791,16 +7779,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7850,7 +7838,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7882,10 +7870,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7908,16 +7896,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7967,7 +7955,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7979,16 +7967,16 @@
         <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7999,10 +7987,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8025,19 +8013,19 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O52" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -8086,7 +8074,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8101,13 +8089,13 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8118,10 +8106,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8147,16 +8135,16 @@
         <v>178</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8184,10 +8172,10 @@
         <v>169</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8205,7 +8193,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8220,13 +8208,13 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8237,10 +8225,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8263,17 +8251,17 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8322,7 +8310,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8337,13 +8325,13 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8354,10 +8342,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8380,19 +8368,19 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8441,7 +8429,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8453,16 +8441,16 @@
         <v>102</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8473,10 +8461,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8499,13 +8487,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8556,7 +8544,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8571,13 +8559,13 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8588,10 +8576,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8703,10 +8691,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8820,14 +8808,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8849,16 +8837,16 @@
         <v>114</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>117</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8907,7 +8895,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8939,10 +8927,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8965,17 +8953,17 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -9024,7 +9012,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9039,13 +9027,13 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -9056,10 +9044,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9082,16 +9070,16 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9120,10 +9108,10 @@
         <v>162</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -9141,7 +9129,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>89</v>
@@ -9156,13 +9144,13 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -9173,10 +9161,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9199,19 +9187,19 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -9260,7 +9248,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9272,16 +9260,16 @@
         <v>102</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9292,10 +9280,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9318,16 +9306,16 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9377,7 +9365,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9389,13 +9377,13 @@
         <v>102</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -9409,10 +9397,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9435,19 +9423,19 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9496,7 +9484,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9511,13 +9499,13 @@
         <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>

--- a/amelioration-mapping/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T09:15:29+00:00</t>
+    <t>2024-03-12T16:16:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:16:50+00:00</t>
+    <t>2024-03-12T16:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:39:05+00:00</t>
+    <t>2024-03-12T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
